--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE3B3E-84DF-F748-92A4-8DDF557AC354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B028CC-8287-9F47-B6F4-88C7A368BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="151">
   <si>
     <t>Publicação</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>https://unisuam.frogtest.com.br/noticias/noticias/ensino/unisuam-realiza-a-segunda-edicao-do-simposio-paradesportivo-carioca/</t>
+  </si>
+  <si>
+    <t>Programa de Pós-Graduação em Ciências da Reabilitação da UNISUAM é contemplado com financiamento estadual</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/programa-de-pos-graduacao-em-ciencias-da-reabilitacao-da-unisuam-e-contemplado-com-financiamento-estadual/</t>
   </si>
 </sst>
 </file>
@@ -868,7 +874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,46 +898,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
+        <v>44635</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>44627</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44616</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,22 +945,34 @@
         <v>44616</v>
       </c>
       <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C6">
-    <sortCondition descending="1" ref="A4:A6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C7">
+    <sortCondition descending="1" ref="A5:A7"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B028CC-8287-9F47-B6F4-88C7A368BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5B681-DD53-FF4A-A819-0F1E9AA96111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
   <si>
     <t>Publicação</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/programa-de-pos-graduacao-em-ciencias-da-reabilitacao-da-unisuam-e-contemplado-com-financiamento-estadual/</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/espaco-do-mestre/unisuam-tem-representante-no-forum-da-area-21-da-capes/</t>
+  </si>
+  <si>
+    <t>UNISUAM tem representante no Fórum da Área 21 da CAPES</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/viver-bem/projeto-de-mestrado-em-ciencias-da-reabilitacao-atende-pacientes-com-ciatalgia-cronica/</t>
+  </si>
+  <si>
+    <t>Projeto de Mestrado em Ciências da Reabilitação atende pacientes com Ciatalgia Crônica</t>
   </si>
 </sst>
 </file>
@@ -874,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,81 +910,105 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>44683</v>
+        <v>44721</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>44676</v>
+        <v>44714</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>44635</v>
+        <v>44683</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
+        <v>44676</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>44635</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>44627</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44616</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44616</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C7">
-    <sortCondition descending="1" ref="A5:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C9">
+    <sortCondition descending="1" ref="A7:A9"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C5B681-DD53-FF4A-A819-0F1E9AA96111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902A768-435A-C443-8558-8479AFCBEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
   <si>
     <t>Publicação</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Projeto de Mestrado em Ciências da Reabilitação atende pacientes com Ciatalgia Crônica</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/doutoranda-em-ciencias-da-reabilitacao-desenvolve-pesquisa-com-apoio-de-universidade-francesa/</t>
+  </si>
+  <si>
+    <t>Doutoranda em Ciências da Reabilitação desenvolve pesquisa com apoio de universidade francesa</t>
   </si>
 </sst>
 </file>
@@ -886,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -908,81 +914,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>44721</v>
+        <v>44776</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
+        <v>44635</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>44627</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>44616</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,25 +996,37 @@
         <v>44616</v>
       </c>
       <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C9">
-    <sortCondition descending="1" ref="A7:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C10">
+    <sortCondition descending="1" ref="A8:A10"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C3" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C3" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9902A768-435A-C443-8558-8479AFCBEFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E96F99-C09F-9541-AEA4-C3323EDF681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
   <si>
     <t>Publicação</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Doutoranda em Ciências da Reabilitação desenvolve pesquisa com apoio de universidade francesa</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/maior-congresso-brasileiro-de-fisioterapia-tem-participacao-de-pesquisadores-e-egressos-da-unisuam/</t>
+  </si>
+  <si>
+    <t>Maior Congresso Brasileiro de Fisioterapia tem participação de pesquisadores e egressos da UNISUAM</t>
   </si>
 </sst>
 </file>
@@ -892,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,90 +922,90 @@
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
+        <v>44796</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>44776</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>44721</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
+        <v>44635</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>44627</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>44616</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1007,26 +1013,38 @@
         <v>44616</v>
       </c>
       <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C10">
-    <sortCondition descending="1" ref="A8:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C11">
+    <sortCondition descending="1" ref="A9:A11"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C2" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E96F99-C09F-9541-AEA4-C3323EDF681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87899C03-7BBC-F347-AF6D-E6A4BC1A736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
   <si>
     <t>Publicação</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>Maior Congresso Brasileiro de Fisioterapia tem participação de pesquisadores e egressos da UNISUAM</t>
+  </si>
+  <si>
+    <t>UNISUAM realiza a XIX Semana Internacional de Pesquisa, Extensão e Inovação</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/unisuam-realiza-a-xix-semana-internacional-de-pesquisa-extensao-e-inovacao/</t>
   </si>
 </sst>
 </file>
@@ -575,14 +581,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -898,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,103 +924,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>44823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44796</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>44776</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>44721</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>44714</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>44683</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>44676</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>44635</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>44627</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,27 +1028,39 @@
         <v>44616</v>
       </c>
       <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B12" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C11">
-    <sortCondition descending="1" ref="A9:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C12">
+    <sortCondition descending="1" ref="A10:A12"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
-    <hyperlink ref="C2" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C6" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C4" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C3" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1145,10 +1161,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44551</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1156,10 +1172,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44538</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1167,7 +1183,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44496</v>
       </c>
       <c r="B4" t="s">
@@ -1178,7 +1194,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44462</v>
       </c>
       <c r="B5" t="s">

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87899C03-7BBC-F347-AF6D-E6A4BC1A736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED1515-A202-1F41-9832-565012224831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
   <si>
     <t>Publicação</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/unisuam-realiza-a-xix-semana-internacional-de-pesquisa-extensao-e-inovacao/</t>
+  </si>
+  <si>
+    <t>Doutoranda em Ciências da Reabilitação na UNISUAM participa de Congresso no Canadá</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/nota-10/doutoranda-em-ciencias-da-reabilitacao-na-unisuam-participa-de-congresso-no-canada/</t>
   </si>
 </sst>
 </file>
@@ -902,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -926,112 +932,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44823</v>
+        <v>44832</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44796</v>
+        <v>44823</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44776</v>
+        <v>44796</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44721</v>
+        <v>44776</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1039,28 +1045,40 @@
         <v>44616</v>
       </c>
       <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C12">
-    <sortCondition descending="1" ref="A10:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C13">
+    <sortCondition descending="1" ref="A11:A13"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
-    <hyperlink ref="C3" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED1515-A202-1F41-9832-565012224831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D539F6B-33BB-FA4E-919F-57370C6D3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
   <si>
     <t>Publicação</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/nota-10/doutoranda-em-ciencias-da-reabilitacao-na-unisuam-participa-de-congresso-no-canada/</t>
+  </si>
+  <si>
+    <t>Programa de Ciências da Reabilitação da UNISUAM realizou o VI Simpósio Paradesportivo Carioca</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/programa-de-ciencias-da-reabilitacao-da-unisuam-realizou-o-vi-simposio-paradesportivo-carioca/</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -932,123 +938,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44832</v>
+        <v>44848</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44823</v>
+        <v>44832</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44796</v>
+        <v>44823</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44776</v>
+        <v>44796</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44721</v>
+        <v>44776</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1056,29 +1062,41 @@
         <v>44616</v>
       </c>
       <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B14" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C13">
-    <sortCondition descending="1" ref="A11:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C14">
+    <sortCondition descending="1" ref="A12:A14"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C12" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C6" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{168D9EA8-987A-EB4E-A97D-D4064C544AFF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Blog_unisuam.xlsx
+++ b/docs/PPG/Blog_unisuam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D539F6B-33BB-FA4E-919F-57370C6D3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A48EB9D-BD38-C546-AEE9-51CF605A5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
   <si>
     <t>Publicação</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/programa-de-ciencias-da-reabilitacao-da-unisuam-realizou-o-vi-simposio-paradesportivo-carioca/</t>
+  </si>
+  <si>
+    <t>XIX Semana Internacional de Pesquisa, Extensão e Inovação da UNISUAM</t>
+  </si>
+  <si>
+    <t>https://www.unisuam.edu.br/noticias/agenda-rolou-aqui/xix-semana-internacional-de-pesquisa-extensao-e-inovacao-da-unisuam/</t>
   </si>
 </sst>
 </file>
@@ -914,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,134 +944,134 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44848</v>
+        <v>44861</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44832</v>
+        <v>44848</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44823</v>
+        <v>44832</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44796</v>
+        <v>44823</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44776</v>
+        <v>44796</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44721</v>
+        <v>44776</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44714</v>
+        <v>44721</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44683</v>
+        <v>44714</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44676</v>
+        <v>44683</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44635</v>
+        <v>44676</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44627</v>
+        <v>44635</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44616</v>
+        <v>44627</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,30 +1079,42 @@
         <v>44616</v>
       </c>
       <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44616</v>
+      </c>
+      <c r="B15" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C14">
-    <sortCondition descending="1" ref="A12:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:C15">
+    <sortCondition descending="1" ref="A13:A15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
-    <hyperlink ref="C11" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
-    <hyperlink ref="C4" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
-    <hyperlink ref="C3" r:id="rId12" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{168D9EA8-987A-EB4E-A97D-D4064C544AFF}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{827D9EC5-7E20-BE46-B592-DFD69B971E6C}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{7FE3400D-249F-D748-ACC5-F7AA5B7E243D}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{2973999F-758D-8B41-8080-53F660364F7D}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{C1E86240-AC8E-3E4F-AF02-9F2B5625C58B}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{041B6B1D-BCA1-AF43-BB34-F777BCCA355B}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{F2A2FF48-F699-5F4A-BB87-4FD8F494CC8E}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{F2A1454E-76EB-7B44-85AD-E08D14C43D83}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{A89CD661-A95A-A44D-9201-285ED23FA478}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{D02535D0-D7F9-3A43-BA5A-A2E15FDFBA36}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{8804F3B5-615C-4844-BB8E-8B0206A57707}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{9E762608-4726-4745-8F15-0EF086978151}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{C5C82763-024A-9F4F-80C4-3C8982FFD800}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{168D9EA8-987A-EB4E-A97D-D4064C544AFF}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{F6BF5972-9996-1743-BC92-E7B098811882}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
